--- a/Revise.xlsx
+++ b/Revise.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShashankShetye\swabhav\LeetCode75\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShashankShetye\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECCDD3-D3C3-411C-9A8A-9238B1F29BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F358D9E-10A1-42B4-8DC4-D34A60B70D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD8B463D-EE57-4D67-9995-7EE3B40D97DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -54,16 +54,79 @@
   </si>
   <si>
     <t>SolvedOn</t>
+  </si>
+  <si>
+    <t>K-Most Frequent Element</t>
+  </si>
+  <si>
+    <t>Encode and Decode String</t>
+  </si>
+  <si>
+    <t>23-11-25</t>
+  </si>
+  <si>
+    <t>25-11-25</t>
+  </si>
+  <si>
+    <t>Use Dictionary and priority Queue</t>
+  </si>
+  <si>
+    <t>Longest Consecutive SubSequence</t>
+  </si>
+  <si>
+    <t>App1: Sort Array and keep track of previous element (pointer )(moderate)</t>
+  </si>
+  <si>
+    <t>Or Using Priority Queue(Slowest)</t>
+  </si>
+  <si>
+    <t>Use HashSet (optimal)</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>App1:Brute Force</t>
+  </si>
+  <si>
+    <t>App2: Dictionary</t>
+  </si>
+  <si>
+    <t>App3: Using 2 pointers left and right</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>App1: Brute Force 3 forLoop</t>
+  </si>
+  <si>
+    <t>App2: Use Listof List and Hashset to store the distincr,SortArray,forloop with each element and inside binary search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,13 +149,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,15 +492,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1372D3EA-4F2E-4124-9DCA-20FCA3FAA62F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>36</v>
       </c>
@@ -461,7 +532,105 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>271</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>128</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>167</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{62AE8DD2-1AF2-49C5-8FEA-06985DC43526}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Revise.xlsx
+++ b/Revise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShashankShetye\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F358D9E-10A1-42B4-8DC4-D34A60B70D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D7394-03AD-40A8-ADEF-8C09AD46B63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD8B463D-EE57-4D67-9995-7EE3B40D97DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -102,6 +102,57 @@
   </si>
   <si>
     <t>App2: Use Listof List and Hashset to store the distincr,SortArray,forloop with each element and inside binary search</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>26-11-25</t>
+  </si>
+  <si>
+    <t>Use l and r pointer</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Use left and right pointer and then minus current height</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Use leftmax and rightmax for each i and then minus current height</t>
+  </si>
+  <si>
+    <t>Solve many times as much as you can</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>18-09-25</t>
+  </si>
+  <si>
+    <t>Set Goal Index</t>
+  </si>
+  <si>
+    <t>Imp</t>
+  </si>
+  <si>
+    <t>BestTime To buy and sell stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App1: Brute Force </t>
+  </si>
+  <si>
+    <t>App2: Calculate max profit for each day from end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App3: Start from start and keep track of min </t>
   </si>
 </sst>
 </file>
@@ -132,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,10 +210,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -492,144 +551,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1372D3EA-4F2E-4124-9DCA-20FCA3FAA62F}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>271</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>128</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>167</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45987</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{62AE8DD2-1AF2-49C5-8FEA-06985DC43526}"/>
+    <hyperlink ref="C8" r:id="rId1" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{62AE8DD2-1AF2-49C5-8FEA-06985DC43526}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Revise.xlsx
+++ b/Revise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShashankShetye\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D7394-03AD-40A8-ADEF-8C09AD46B63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D9BF4B-9484-4993-AC68-7B72C110AE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD8B463D-EE57-4D67-9995-7EE3B40D97DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -153,6 +153,54 @@
   </si>
   <si>
     <t xml:space="preserve">App3: Start from start and keep track of min </t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>App1: brute Force</t>
+  </si>
+  <si>
+    <t>App2: Sliding Window and pointer</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>28-11-25</t>
+  </si>
+  <si>
+    <t>27-11-25</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>App2: Dictionary and sliding Window</t>
+  </si>
+  <si>
+    <t>Maximum Sliding Window</t>
+  </si>
+  <si>
+    <t>App2: LInkedList (To keep track of last and first element)</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>App1: Using Array</t>
+  </si>
+  <si>
+    <t>App2: Using Stack Tuple</t>
+  </si>
+  <si>
+    <t>App3: Using LinkedList</t>
   </si>
 </sst>
 </file>
@@ -551,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1372D3EA-4F2E-4124-9DCA-20FCA3FAA62F}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,6 +824,118 @@
         <v>38</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>424</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>576</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45669</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>239</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="4">
+        <v>45992</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="4">
+        <v>45700</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{62AE8DD2-1AF2-49C5-8FEA-06985DC43526}"/>

--- a/Revise.xlsx
+++ b/Revise.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShashankShetye\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D9BF4B-9484-4993-AC68-7B72C110AE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA5CD70-B78F-4516-88AA-D420283A575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD8B463D-EE57-4D67-9995-7EE3B40D97DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
   <si>
     <t>No</t>
   </si>
@@ -59,9 +61,6 @@
     <t>K-Most Frequent Element</t>
   </si>
   <si>
-    <t>Encode and Decode String</t>
-  </si>
-  <si>
     <t>23-11-25</t>
   </si>
   <si>
@@ -201,13 +200,292 @@
   </si>
   <si>
     <t>App3: Using LinkedList</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>App1: Use Strack</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Daily Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Stack </t>
+  </si>
+  <si>
+    <t>Car Fleet</t>
+  </si>
+  <si>
+    <t>Search in 2D Matrix</t>
+  </si>
+  <si>
+    <t>Koko Eating Banana</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>Using Brute force</t>
+  </si>
+  <si>
+    <t>Using Binary Search</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Special cases</t>
+  </si>
+  <si>
+    <t>Using binary search</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted array</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Whenever the short input works and longest input doesn’t work, it may be issue with datatype eg int can store values upto 32000 only</t>
+  </si>
+  <si>
+    <t>eg leetcode 367</t>
+  </si>
+  <si>
+    <t>Valid Perfect Square</t>
+  </si>
+  <si>
+    <t>Using binary search (like koko eating banana)</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>GuessNumberHigherorLower</t>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>Using upperbound and lower bound</t>
+  </si>
+  <si>
+    <t>Concatenation of Array</t>
+  </si>
+  <si>
+    <t>16/12/25</t>
+  </si>
+  <si>
+    <t>Using linq or normal</t>
+  </si>
+  <si>
+    <t>Shuffle array</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Using Queue</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>MaxOnes</t>
+  </si>
+  <si>
+    <t>Time Based Key-Value Store</t>
+  </si>
+  <si>
+    <t>Using List Tuple</t>
+  </si>
+  <si>
+    <t>H-index</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>17/12/25</t>
+  </si>
+  <si>
+    <t>Using Min max</t>
+  </si>
+  <si>
+    <t>H-index ||</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Combine and check</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>BluBluBluBluBluBluBluBluBlu</t>
+  </si>
+  <si>
+    <t>for (int i = 0; i &lt; n; i++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            int left = i;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            int right = i;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // Expand to the left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            while (left - 1 &gt;= 0 &amp;&amp; heights[left - 1] &gt;= heights[i])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                left--;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // Expand to the right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            while (right + 1 &lt; n &amp;&amp; heights[right + 1] &gt;= heights[i])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                right++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            int width = right - left + 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            int area = heights[i] * width;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            maxArea = Math.Max(maxArea, area);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Historgram</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>20/12/25</t>
+  </si>
+  <si>
+    <t>Imagine Like a circuit race with cars in constant speed</t>
+  </si>
+  <si>
+    <t>Using HashSets</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Using List</t>
+  </si>
+  <si>
+    <t>Using Reverse then making list</t>
+  </si>
+  <si>
+    <t>Delete the Middle Node of a Linked List</t>
+  </si>
+  <si>
+    <t>27/12/25</t>
+  </si>
+  <si>
+    <t>Using Fast and Slow</t>
+  </si>
+  <si>
+    <t>Add two numbers</t>
+  </si>
+  <si>
+    <t>28/12/25</t>
+  </si>
+  <si>
+    <t>Using LinkedList</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>Using Prev</t>
+  </si>
+  <si>
+    <t>Verifying an Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Using Array of Alphabet</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using prev and current (Linked List) </t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>29/12/25</t>
+  </si>
+  <si>
+    <t>Different</t>
+  </si>
+  <si>
+    <t>Inserting rnode in between</t>
+  </si>
+  <si>
+    <t>Using Dictionary</t>
+  </si>
+  <si>
+    <t>VVV imp</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>Just Remember</t>
+  </si>
+  <si>
+    <t>14-01-26</t>
+  </si>
+  <si>
+    <t>Learn  Priority Queue Question:Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>22/1/2026</t>
+  </si>
+  <si>
+    <t>Use Prev and head to null and add in between</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +508,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +527,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,12 +550,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1372D3EA-4F2E-4124-9DCA-20FCA3FAA62F}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -654,10 +949,10 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -665,13 +960,13 @@
         <v>271</v>
       </c>
       <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -679,23 +974,23 @@
         <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -703,23 +998,23 @@
         <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -727,18 +1022,18 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -746,13 +1041,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -760,24 +1055,24 @@
         <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -785,16 +1080,16 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -802,26 +1097,26 @@
         <v>121</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
       </c>
       <c r="D17" s="4">
         <v>45987</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -829,21 +1124,21 @@
         <v>424</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
         <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -851,18 +1146,18 @@
         <v>576</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -870,21 +1165,21 @@
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="4">
         <v>45669</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -892,21 +1187,21 @@
         <v>239</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="4">
         <v>45992</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -914,32 +1209,653 @@
         <v>155</v>
       </c>
       <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
       </c>
       <c r="D29" s="4">
         <v>45700</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>54</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45700</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>704</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="4">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>739</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="4">
+        <v>45728</v>
+      </c>
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>853</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="4">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="4">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>875</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="4">
+        <v>45850</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>153</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45881</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45912</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45942</v>
+      </c>
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>367</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45942</v>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45942</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>374</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45942</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>34</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45942</v>
+      </c>
+      <c r="F45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1929</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>981</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>275</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>143</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2095</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>953</v>
+      </c>
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>287</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="7">
+        <v>46054</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>146</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{62AE8DD2-1AF2-49C5-8FEA-06985DC43526}"/>
+    <hyperlink ref="C45" r:id="rId2" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{270FBF2A-13F4-48FA-BDDF-962AE6763283}"/>
+    <hyperlink ref="C46" r:id="rId3" display="https://leetcode.com/problems/concatenation-of-array/" xr:uid="{8A27632B-117E-46E2-9FA0-A4C01D6D077C}"/>
+    <hyperlink ref="C52" r:id="rId4" display="https://leetcode.com/problems/median-of-two-sorted-arrays/" xr:uid="{49F143DD-EBED-4DB6-8D01-6CC48CB0BA14}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B5910C-B0CA-435E-BABC-1CBEBB949351}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="106.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8269E3-34AF-4400-92D5-964A5F333694}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Revise.xlsx
+++ b/Revise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShashankShetye\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA5CD70-B78F-4516-88AA-D420283A575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D052FC2-DA69-43FA-999E-9D3C451DA6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD8B463D-EE57-4D67-9995-7EE3B40D97DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="150">
   <si>
     <t>No</t>
   </si>
@@ -479,6 +479,15 @@
   </si>
   <si>
     <t>Use Prev and head to null and add in between</t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>23/1/26</t>
+  </si>
+  <si>
+    <t>Use even and odd pointer</t>
   </si>
 </sst>
 </file>
@@ -894,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1372D3EA-4F2E-4124-9DCA-20FCA3FAA62F}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1719,15 +1728,30 @@
         <v>146</v>
       </c>
     </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>328</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{62AE8DD2-1AF2-49C5-8FEA-06985DC43526}"/>
     <hyperlink ref="C45" r:id="rId2" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{270FBF2A-13F4-48FA-BDDF-962AE6763283}"/>
     <hyperlink ref="C46" r:id="rId3" display="https://leetcode.com/problems/concatenation-of-array/" xr:uid="{8A27632B-117E-46E2-9FA0-A4C01D6D077C}"/>
     <hyperlink ref="C52" r:id="rId4" display="https://leetcode.com/problems/median-of-two-sorted-arrays/" xr:uid="{49F143DD-EBED-4DB6-8D01-6CC48CB0BA14}"/>
+    <hyperlink ref="C67" r:id="rId5" display="https://leetcode.com/problems/odd-even-linked-list/" xr:uid="{06BBCB60-F4B7-4AF8-90B4-E2CA7FF3C22D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Revise.xlsx
+++ b/Revise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShashankShetye\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D052FC2-DA69-43FA-999E-9D3C451DA6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E48A3E-645C-409B-B4F8-55CF1F7327EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD8B463D-EE57-4D67-9995-7EE3B40D97DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="153">
   <si>
     <t>No</t>
   </si>
@@ -488,6 +488,15 @@
   </si>
   <si>
     <t>Use even and odd pointer</t>
+  </si>
+  <si>
+    <t>29/1/26</t>
+  </si>
+  <si>
+    <t>29-1-26</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
   </si>
 </sst>
 </file>
@@ -903,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1372D3EA-4F2E-4124-9DCA-20FCA3FAA62F}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,6 +1064,9 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
       <c r="F13" t="s">
         <v>23</v>
       </c>
@@ -1531,7 +1543,9 @@
       <c r="D52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>96</v>
       </c>
@@ -1740,6 +1754,14 @@
       </c>
       <c r="F67" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>14</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1749,9 +1771,10 @@
     <hyperlink ref="C46" r:id="rId3" display="https://leetcode.com/problems/concatenation-of-array/" xr:uid="{8A27632B-117E-46E2-9FA0-A4C01D6D077C}"/>
     <hyperlink ref="C52" r:id="rId4" display="https://leetcode.com/problems/median-of-two-sorted-arrays/" xr:uid="{49F143DD-EBED-4DB6-8D01-6CC48CB0BA14}"/>
     <hyperlink ref="C67" r:id="rId5" display="https://leetcode.com/problems/odd-even-linked-list/" xr:uid="{06BBCB60-F4B7-4AF8-90B4-E2CA7FF3C22D}"/>
+    <hyperlink ref="C68" r:id="rId6" display="https://leetcode.com/problems/longest-common-prefix/" xr:uid="{34485A57-D8D1-4755-994E-28F2AA150EF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Revise.xlsx
+++ b/Revise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShashankShetye\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E48A3E-645C-409B-B4F8-55CF1F7327EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE86470-C7C9-4D8E-96A2-7282354343AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD8B463D-EE57-4D67-9995-7EE3B40D97DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="156">
   <si>
     <t>No</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Divide an Array Into Subarrays With Minimum Cost I</t>
+  </si>
+  <si>
+    <t>Use 1st and 2nd highest no</t>
+  </si>
+  <si>
+    <t>Roman To Integer</t>
   </si>
 </sst>
 </file>
@@ -568,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -577,6 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -912,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1372D3EA-4F2E-4124-9DCA-20FCA3FAA62F}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,7 +1756,7 @@
       <c r="A67">
         <v>328</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -1760,8 +1770,39 @@
       <c r="A68" s="2">
         <v>14</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="8" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>3010</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="4">
+        <v>46024</v>
+      </c>
+      <c r="E69" s="4">
+        <v>46024</v>
+      </c>
+      <c r="F69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="4">
+        <v>46024</v>
+      </c>
+      <c r="E70" s="4">
+        <v>46024</v>
       </c>
     </row>
   </sheetData>
@@ -1770,11 +1811,9 @@
     <hyperlink ref="C45" r:id="rId2" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{270FBF2A-13F4-48FA-BDDF-962AE6763283}"/>
     <hyperlink ref="C46" r:id="rId3" display="https://leetcode.com/problems/concatenation-of-array/" xr:uid="{8A27632B-117E-46E2-9FA0-A4C01D6D077C}"/>
     <hyperlink ref="C52" r:id="rId4" display="https://leetcode.com/problems/median-of-two-sorted-arrays/" xr:uid="{49F143DD-EBED-4DB6-8D01-6CC48CB0BA14}"/>
-    <hyperlink ref="C67" r:id="rId5" display="https://leetcode.com/problems/odd-even-linked-list/" xr:uid="{06BBCB60-F4B7-4AF8-90B4-E2CA7FF3C22D}"/>
-    <hyperlink ref="C68" r:id="rId6" display="https://leetcode.com/problems/longest-common-prefix/" xr:uid="{34485A57-D8D1-4755-994E-28F2AA150EF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
